--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\IdeaProjects\XLSX2SQLite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Desktop\Source Files\Java Source Files\XLSX2SQLite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D671956-D886-4D8F-AD45-9C302ADAA3FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D3B4C-C219-418D-B48A-17C1D9F1C877}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9588" xr2:uid="{11DCE840-D37F-459E-A0D6-035C6BF79A8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,24 +425,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>75</v>
@@ -479,37 +462,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF46C8CA-DACF-4AB8-8198-F3E0F7B4EFE4}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>